--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Parameter classification.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Parameter classification.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t/>
   </si>
@@ -26,37 +26,28 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Input-hazard</t>
-  </si>
-  <si>
-    <t>Parameter classification_1</t>
-  </si>
-  <si>
-    <t>Initial concentration obtained in the previous module</t>
-  </si>
-  <si>
-    <t>Input-environmental factor</t>
-  </si>
-  <si>
-    <t>Parameter classification_2</t>
-  </si>
-  <si>
     <t>Constant</t>
   </si>
   <si>
     <t>Parameter classification_3</t>
   </si>
   <si>
+    <t>A parameter held constant in any simulation at the given value; This allows to restrict the number of changable inputs for certain user groups.</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>Parameter classification_6</t>
+  </si>
+  <si>
+    <t>Any parameter that can be changed by the user and that effect the model-based simulations</t>
+  </si>
+  <si>
     <t>Output</t>
   </si>
   <si>
     <t>Parameter classification_4</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Parameter classification_5</t>
   </si>
 </sst>
 </file>
@@ -136,30 +127,28 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
+      <c r="A5"/>
+      <c r="B5"/>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
+      <c r="A6"/>
+      <c r="B6"/>
     </row>
     <row r="7">
       <c r="A7"/>
